--- a/files/QT/midterm_nov2016_correct.xlsx
+++ b/files/QT/midterm_nov2016_correct.xlsx
@@ -583,11 +583,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2134172376"/>
-        <c:axId val="2113251112"/>
+        <c:axId val="2126202168"/>
+        <c:axId val="2126205128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2134172376"/>
+        <c:axId val="2126202168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -598,12 +598,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2113251112"/>
+        <c:crossAx val="2126205128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2113251112"/>
+        <c:axId val="2126205128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -615,7 +615,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2134172376"/>
+        <c:crossAx val="2126202168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
